--- a/python0213-lsa/0223/aaaa.xlsx
+++ b/python0213-lsa/0223/aaaa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
           <t>City</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,9 +456,6 @@
           <t>부산</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,9 +468,6 @@
           <t>대전</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -491,9 +480,6 @@
           <t>부산</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,9 +492,6 @@
           <t>제주</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -521,9 +504,6 @@
           <t>제주</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -535,9 +515,6 @@
         <is>
           <t>양산</t>
         </is>
-      </c>
-      <c r="C7" t="n">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
